--- a/crm接口文档/客户管理/查看客户列表.xlsx
+++ b/crm接口文档/客户管理/查看客户列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13755" windowHeight="4215"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>URL</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Content-Type</t>
   </si>
   <si>
-    <t>application/json;charset=utf-8</t>
-  </si>
-  <si>
     <t>输入参数来源</t>
   </si>
   <si>
@@ -69,12 +66,30 @@
     <t>缺省值</t>
   </si>
   <si>
+    <t>根对象</t>
+  </si>
+  <si>
+    <t>pageNum</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>页码</t>
+  </si>
+  <si>
+    <t>可选</t>
+  </si>
+  <si>
+    <t>pageSize</t>
+  </si>
+  <si>
+    <t>每页显示条数</t>
+  </si>
+  <si>
     <t> 输出参数来源</t>
   </si>
   <si>
-    <t>根对象</t>
-  </si>
-  <si>
     <t>result</t>
   </si>
   <si>
@@ -93,9 +108,6 @@
     <t>响应错误码</t>
   </si>
   <si>
-    <t>可选</t>
-  </si>
-  <si>
     <t>msg</t>
   </si>
   <si>
@@ -105,10 +117,49 @@
     <t>data</t>
   </si>
   <si>
-    <t>List&lt;CustomeVo&gt;</t>
+    <t>pageInfo</t>
   </si>
   <si>
     <t>绑定信息的对象</t>
+  </si>
+  <si>
+    <t>每页条数</t>
+  </si>
+  <si>
+    <t>当前页码</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>总条数</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>总页数</t>
+  </si>
+  <si>
+    <t>hasPreviousPage</t>
+  </si>
+  <si>
+    <t>是否有上一页</t>
+  </si>
+  <si>
+    <t>hasNextPage</t>
+  </si>
+  <si>
+    <t>是否有下一页</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>List&lt;CustomerVo&gt;</t>
+  </si>
+  <si>
+    <t>具体列表数据</t>
   </si>
   <si>
     <t>CustomerVo</t>
@@ -176,11 +227,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,12 +280,63 @@
     <font>
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,15 +351,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,14 +366,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -287,33 +374,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,58 +433,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -398,13 +455,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDDFADE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFDD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDFADE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,25 +575,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,152 +651,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -632,26 +689,41 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,15 +743,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -695,17 +758,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,39 +786,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -761,10 +794,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,137 +806,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -931,61 +964,43 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1336,20 +1351,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="9" max="9" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:10">
+    <row r="1" ht="15" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1360,12 +1377,8 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="1:10">
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1376,12 +1389,8 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:10">
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1389,19 +1398,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4">
-        <v>8080</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" ht="28.5" customHeight="1" spans="1:10">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" ht="28.5" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1409,329 +1412,403 @@
         <v>8</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" ht="27" customHeight="1" spans="1:6">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" ht="27" customHeight="1" spans="1:10">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="21" customHeight="1" spans="1:6">
+      <c r="A6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="21" customHeight="1" spans="1:6">
+      <c r="A7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="27.75" customHeight="1" spans="1:6">
+      <c r="A8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="8" t="s">
+    </row>
+    <row r="9" ht="27" customHeight="1" spans="1:6">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" ht="21" customHeight="1" spans="1:10">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" ht="27.75" customHeight="1" spans="1:10">
-      <c r="A7" s="8" t="s">
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:6">
+      <c r="A10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:6">
+      <c r="A11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" ht="19" customHeight="1" spans="1:6">
+      <c r="A12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" ht="19" customHeight="1" spans="1:6">
+      <c r="A13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" ht="19" customHeight="1" spans="1:6">
+      <c r="A14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="C14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" ht="27" customHeight="1" spans="1:10">
-      <c r="A8" s="11" t="s">
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" ht="19" customHeight="1" spans="1:6">
+      <c r="A15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="s">
+      <c r="D15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" ht="19" customHeight="1" spans="1:6">
+      <c r="A16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" ht="19" customHeight="1" spans="1:6">
+      <c r="A17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" ht="19" customHeight="1" spans="1:6">
+      <c r="A18" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" ht="19" customHeight="1" spans="1:6">
+      <c r="A19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:10">
-      <c r="A9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="1:10">
-      <c r="A10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" ht="19" customHeight="1" spans="1:10">
-      <c r="A11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" ht="32" customHeight="1" spans="1:6">
+      <c r="A20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" ht="32" customHeight="1" spans="1:10">
-      <c r="A12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:9">
-      <c r="A13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:9">
-      <c r="A15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:9">
-      <c r="A16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:9">
-      <c r="A17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="26" t="s">
-        <v>15</v>
+      <c r="D21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:H17"/>
+  <mergeCells count="6">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.21mhealth.com/" tooltip="https://www.21mhealth.com/"/>
-    <hyperlink ref="F9" r:id="rId2" display="响应错误码"/>
+    <hyperlink ref="D10" r:id="rId2" display="响应错误码"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/crm接口文档/客户管理/查看客户列表.xlsx
+++ b/crm接口文档/客户管理/查看客户列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>URL</t>
   </si>
@@ -220,15 +220,21 @@
   <si>
     <t>客户邮箱</t>
   </si>
+  <si>
+    <t>cusSourceStr</t>
+  </si>
+  <si>
+    <t>客户来源-字符串（显示值）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -291,6 +297,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -298,9 +326,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,14 +387,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -328,15 +394,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,22 +410,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -374,53 +418,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,6 +432,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -467,19 +473,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,163 +647,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,6 +695,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -700,45 +715,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,11 +743,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,10 +800,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,137 +812,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -983,9 +989,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1351,10 +1354,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1569,127 +1572,127 @@
       <c r="F12" s="9"/>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:6">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="9"/>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:6">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="9"/>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:6">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="9"/>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:6">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="9"/>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:6">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="9"/>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:6">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="9"/>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:6">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="9"/>
@@ -1698,21 +1701,21 @@
       <c r="A20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" ht="14.25" spans="1:5">
       <c r="A21" s="9" t="s">
         <v>48</v>
       </c>
@@ -1725,24 +1728,24 @@
       <c r="D21" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" ht="14.25" spans="1:5">
       <c r="A22" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1750,50 +1753,67 @@
       <c r="A23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" ht="14.25" spans="1:5">
       <c r="A24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" ht="14.25" spans="1:5">
       <c r="A25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:5">
+      <c r="A26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>14</v>
       </c>
     </row>

--- a/crm接口文档/客户管理/查看客户列表.xlsx
+++ b/crm接口文档/客户管理/查看客户列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9390"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>URL</t>
   </si>
@@ -171,24 +171,10 @@
     <t>Long</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>客户</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id</t>
-    </r>
+    <t>客户id</t>
+  </si>
+  <si>
+    <t>list不为空时，必须</t>
   </si>
   <si>
     <t>cusName</t>
@@ -209,6 +195,12 @@
     <t>客户来源</t>
   </si>
   <si>
+    <t>cusSourceStr</t>
+  </si>
+  <si>
+    <t>客户来源字符串（用于显示）</t>
+  </si>
+  <si>
     <t>cusMobile</t>
   </si>
   <si>
@@ -219,12 +211,6 @@
   </si>
   <si>
     <t>客户邮箱</t>
-  </si>
-  <si>
-    <t>cusSourceStr</t>
-  </si>
-  <si>
-    <t>客户来源-字符串（显示值）</t>
   </si>
 </sst>
 </file>
@@ -296,8 +282,77 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,17 +366,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,32 +397,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,75 +412,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -479,6 +465,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -491,13 +489,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,13 +591,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,43 +609,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,79 +639,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,9 +683,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,45 +721,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,13 +749,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,10 +786,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,137 +798,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -995,9 +981,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1356,8 +1339,8 @@
   <sheetPr/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1366,7 +1349,7 @@
     <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="33.5" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:6">
@@ -1573,7 +1556,7 @@
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>21</v>
@@ -1591,7 +1574,7 @@
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>17</v>
@@ -1609,7 +1592,7 @@
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>37</v>
@@ -1627,7 +1610,7 @@
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>39</v>
@@ -1645,7 +1628,7 @@
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>41</v>
@@ -1663,7 +1646,7 @@
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>43</v>
@@ -1681,7 +1664,7 @@
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>45</v>
@@ -1697,7 +1680,7 @@
       </c>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" ht="32" customHeight="1" spans="1:6">
+    <row r="20" ht="21" customHeight="1" spans="1:6">
       <c r="A20" s="9" t="s">
         <v>48</v>
       </c>
@@ -1710,8 +1693,8 @@
       <c r="D20" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>14</v>
+      <c r="E20" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="F20" s="9"/>
     </row>
@@ -1720,101 +1703,101 @@
         <v>48</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:5">
       <c r="A22" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>54</v>
+      <c r="B22" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="D22" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:5">
       <c r="A23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>56</v>
+      <c r="B23" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>14</v>
+      <c r="D23" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:5">
       <c r="A24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>58</v>
+      <c r="B24" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>14</v>
+      <c r="D24" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:5">
       <c r="A25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>60</v>
+      <c r="B25" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>14</v>
+      <c r="D25" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:5">
       <c r="A26" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>62</v>
+      <c r="B26" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>14</v>
+      <c r="D26" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/crm接口文档/客户管理/查看客户列表.xlsx
+++ b/crm接口文档/客户管理/查看客户列表.xlsx
@@ -21,7 +21,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>/qiuxx/crm/10010/500</t>
+    <t>/crm/10010/500</t>
   </si>
   <si>
     <t>接口描述</t>
@@ -220,8 +220,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -282,6 +282,97 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,36 +381,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -328,64 +389,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -404,27 +412,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -459,187 +459,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,35 +681,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -728,8 +699,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,17 +720,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,6 +745,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -786,10 +786,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -798,133 +798,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1339,8 +1339,8 @@
   <sheetPr/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
